--- a/smartclassonlinesel/FlipLearn/TestData/LoginData/url_excel.xlsx
+++ b/smartclassonlinesel/FlipLearn/TestData/LoginData/url_excel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="URL2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -368,7 +368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,7 +403,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/smartclassonlinesel/FlipLearn/TestData/LoginData/url_excel.xlsx
+++ b/smartclassonlinesel/FlipLearn/TestData/LoginData/url_excel.xlsx
@@ -87,9 +87,6 @@
     <t>MathGuruPage_URL</t>
   </si>
   <si>
-    <t>http://www.fliplearn.com/index.php/mathguru/index?level_id=6</t>
-  </si>
-  <si>
     <t>StudentPage_URL</t>
   </si>
   <si>
@@ -226,6 +223,9 @@
   </si>
   <si>
     <t>http://www.fliplearn.com/index.php/Batchreports/admin</t>
+  </si>
+  <si>
+    <t>http://www.fliplearn.com/index.php/mathguru/index?level_id=10</t>
   </si>
 </sst>
 </file>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,73 +699,73 @@
         <v>22</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="U1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="W1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="AC1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="AF1" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AI1" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="AJ1" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -788,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
@@ -806,76 +806,76 @@
         <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="AB2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="AI2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">

--- a/smartclassonlinesel/FlipLearn/TestData/LoginData/url_excel.xlsx
+++ b/smartclassonlinesel/FlipLearn/TestData/LoginData/url_excel.xlsx
@@ -87,6 +87,9 @@
     <t>MathGuruPage_URL</t>
   </si>
   <si>
+    <t>http://www.fliplearn.com/index.php/mathguru/index?level_id=6</t>
+  </si>
+  <si>
     <t>StudentPage_URL</t>
   </si>
   <si>
@@ -223,9 +226,6 @@
   </si>
   <si>
     <t>http://www.fliplearn.com/index.php/Batchreports/admin</t>
-  </si>
-  <si>
-    <t>http://www.fliplearn.com/index.php/mathguru/index?level_id=10</t>
   </si>
 </sst>
 </file>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,73 +699,73 @@
         <v>22</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH1" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -788,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
@@ -806,80 +806,81 @@
         <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
+      <c r="R3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
